--- a/public/uploads/book.xlsx
+++ b/public/uploads/book.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -19,19 +19,10 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>tony</t>
   </si>
   <si>
     <t>tony@tony.com</t>
-  </si>
-  <si>
-    <t>$2y$10$uG/Vn2DVBiy3d/jfDwlGD.3Kr/JjHkpotXsSuH2V3OVe.G8PF2wem</t>
-  </si>
-  <si>
-    <t>tonytony</t>
   </si>
 </sst>
 </file>
@@ -98,22 +89,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/book.xlsx
+++ b/public/uploads/book.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>tony</t>
@@ -89,12 +92,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/uploads/book.xlsx
+++ b/public/uploads/book.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>tony@tony.com</t>
+  </si>
+  <si>
+    <t>$2y$10$uG/Vn2DVBiy3d/jfDwlGD.3Kr/JjHkpotXsSuH2V3OVe.G8PF2wem</t>
+  </si>
+  <si>
+    <t>tonytony</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
